--- a/StandardDeviation.xlsx
+++ b/StandardDeviation.xlsx
@@ -39,8 +39,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0000000000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.0000000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -79,9 +80,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,1289 +367,1290 @@
   <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1.18657142E-2</v>
+      <c r="A1" s="2">
+        <v>3.3829236210981442E-3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1">
         <f>STDEV(A1:A251)</f>
-        <v>2.8113160320665273E-3</v>
+        <v>1.2208669909148109E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.1511931499999999E-2</v>
+      <c r="A2" s="2">
+        <v>-1.7180563214171593E-3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1">
         <f>_xlfn.STDEV.P(A1:A251)</f>
-        <v>2.8057102118683522E-3</v>
+        <v>1.2184325578027412E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.1183525200000001E-2</v>
+      <c r="A3" s="2">
+        <v>-2.8813861775428972E-3</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1">
         <f>_xlfn.STDEV.S(A1:A251)</f>
-        <v>2.8113160320665273E-3</v>
+        <v>1.2208669909148109E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.08644756E-2</v>
+      <c r="A4" s="2">
+        <v>-2.798418219739415E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.12572708E-2</v>
+      <c r="A5" s="2">
+        <v>1.621291969019811E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.1097294799999999E-2</v>
+      <c r="A6" s="2">
+        <v>-8.1928561632012321E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.0801902400000001E-2</v>
+      <c r="A7" s="2">
+        <v>3.9160824319541413E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.05189463E-2</v>
+      <c r="A8" s="2">
+        <v>4.0166354477636943E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.01986201E-2</v>
+      <c r="A9" s="2">
+        <v>2.0472898819136966E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.0083355299999999E-2</v>
+      <c r="A10" s="2">
+        <v>8.0652669018313524E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9.9896818000000005E-3</v>
+      <c r="A11" s="2">
+        <v>8.3866280291008868E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9.6886885000000006E-3</v>
+      <c r="A12" s="2">
+        <v>-1.0373656493968216E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9.6119942999999992E-3</v>
+      <c r="A13" s="2">
+        <v>-8.3186431986372149E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>9.3881169E-3</v>
+      <c r="A14" s="2">
+        <v>4.6363248079289753E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9.2922017000000006E-3</v>
+      <c r="A15" s="2">
+        <v>7.6337834681382702E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9.1655516999999999E-3</v>
+      <c r="A16" s="2">
+        <v>6.8835877125135196E-3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8.8979075999999994E-3</v>
+      <c r="A17" s="2">
+        <v>1.8523029866223937E-3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>9.1472703999999991E-3</v>
+      <c r="A18" s="2">
+        <v>-1.2416495798168548E-2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>9.0160585000000001E-3</v>
+      <c r="A19" s="2">
+        <v>-6.6296154170596725E-3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9.0857565000000001E-3</v>
+      <c r="A20" s="2">
+        <v>1.011518572828954E-2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>8.8430360999999999E-3</v>
+      <c r="A21" s="2">
+        <v>3.1658956976229448E-3</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>8.7578090000000001E-3</v>
+      <c r="A22" s="2">
+        <v>7.2937056430676011E-3</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>8.4913781000000004E-3</v>
+      <c r="A23" s="2">
+        <v>-3.223930725503206E-4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>8.4179058000000001E-3</v>
+      <c r="A24" s="2">
+        <v>7.16920051419125E-3</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>8.1628835000000007E-3</v>
+      <c r="A25" s="2">
+        <v>-6.2179663261663647E-4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>8.9294963000000008E-3</v>
+      <c r="A26" s="2">
+        <v>-1.6882534240733632E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>8.6740141000000003E-3</v>
+      <c r="A27" s="2">
+        <v>-2.1862086981150023E-3</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>8.4701480000000003E-3</v>
+      <c r="A28" s="2">
+        <v>4.1214848684322332E-3</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>8.2187375999999996E-3</v>
+      <c r="A29" s="2">
+        <v>-1.3468743502141932E-3</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>8.1140495999999993E-3</v>
+      <c r="A30" s="2">
+        <v>-6.2490155276478465E-3</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7.9917566000000002E-3</v>
+      <c r="A31" s="2">
+        <v>5.7454929164876883E-3</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>7.7709555999999997E-3</v>
+      <c r="A32" s="2">
+        <v>2.4209745056247268E-3</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>8.0252760999999992E-3</v>
+      <c r="A33" s="2">
+        <v>-1.1284628549814496E-2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>7.9069254000000005E-3</v>
+      <c r="A34" s="2">
+        <v>5.7427011675006169E-3</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>7.7035100000000002E-3</v>
+      <c r="A35" s="2">
+        <v>3.097753966710253E-3</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>7.5504101000000001E-3</v>
+      <c r="A36" s="2">
+        <v>-4.5189784239888795E-3</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>7.3635317999999998E-3</v>
+      <c r="A37" s="2">
+        <v>3.2491799080612725E-3</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>7.9116845000000002E-3</v>
+      <c r="A38" s="2">
+        <v>1.3920276900143611E-2</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>7.7859701999999998E-3</v>
+      <c r="A39" s="2">
+        <v>-5.4501762104000187E-3</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>8.6314162000000003E-3</v>
+      <c r="A40" s="2">
+        <v>1.7086687660653761E-2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>8.9683773999999997E-3</v>
+      <c r="A41" s="2">
+        <v>1.3165946142830148E-2</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>8.7377637999999994E-3</v>
+      <c r="A42" s="2">
+        <v>-3.5181207062693681E-3</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>9.9354282000000006E-3</v>
+      <c r="A43" s="2">
+        <v>-2.1191637131879652E-2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>9.6755936000000008E-3</v>
+      <c r="A44" s="2">
+        <v>3.7129092382556022E-3</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>9.3854448999999996E-3</v>
+      <c r="A45" s="2">
+        <v>1.2006339867318137E-3</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>9.3292949E-3</v>
+      <c r="A46" s="2">
+        <v>-8.400755270078027E-3</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>9.0738254000000008E-3</v>
+      <c r="A47" s="2">
+        <v>-2.9459287023276557E-3</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>8.9447957000000008E-3</v>
+      <c r="A48" s="2">
+        <v>-6.6019190089099799E-3</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>8.7176197E-3</v>
+      <c r="A49" s="2">
+        <v>-3.624189264354712E-3</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>8.5496704000000007E-3</v>
+      <c r="A50" s="2">
+        <v>-5.2595715813562047E-3</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>8.4443308000000002E-3</v>
+      <c r="A51" s="2">
+        <v>6.5773213217179853E-3</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>8.2624680999999998E-3</v>
+      <c r="A52" s="2">
+        <v>4.5461717388528746E-3</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>8.0771170999999996E-3</v>
+      <c r="A53" s="2">
+        <v>4.2181057470661214E-3</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>8.0221948000000001E-3</v>
+      <c r="A54" s="2">
+        <v>-7.1065429687419248E-3</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>7.9625024999999995E-3</v>
+      <c r="A55" s="2">
+        <v>-6.9608103917962513E-3</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>7.9303433E-3</v>
+      <c r="A56" s="2">
+        <v>7.4083123955190153E-3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>7.7459840999999996E-3</v>
+      <c r="A57" s="2">
+        <v>-3.8369837199843139E-3</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>7.5565153999999999E-3</v>
+      <c r="A58" s="2">
+        <v>-3.4172857934546032E-3</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>7.3315523000000004E-3</v>
+      <c r="A59" s="2">
+        <v>1.1312931598905546E-3</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>7.6650199000000002E-3</v>
+      <c r="A60" s="2">
+        <v>1.1708949972175699E-2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>7.4763833000000002E-3</v>
+      <c r="A61" s="2">
+        <v>3.3389855619846876E-3</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>7.2640965999999996E-3</v>
+      <c r="A62" s="2">
+        <v>1.9346406893645353E-3</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>7.2675559999999997E-3</v>
+      <c r="A63" s="2">
+        <v>-7.3215394172676061E-3</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>7.1006814000000003E-3</v>
+      <c r="A64" s="2">
+        <v>3.5855006119192862E-3</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>7.4563121000000001E-3</v>
+      <c r="A65" s="2">
+        <v>1.1691944813260843E-2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>7.9029294999999992E-3</v>
+      <c r="A66" s="2">
+        <v>-1.3035528270514771E-2</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1.62350658E-2</v>
+      <c r="A67" s="2">
+        <v>-5.843350149222204E-2</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1.58347847E-2</v>
+      <c r="A68" s="2">
+        <v>-7.044719531430663E-3</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1.5391690499999999E-2</v>
+      <c r="A69" s="2">
+        <v>-4.4873088632349399E-3</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1.5014120800000001E-2</v>
+      <c r="A70" s="2">
+        <v>-6.7502292069909911E-3</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1.4634459000000001E-2</v>
+      <c r="A71" s="2">
+        <v>-6.1495195117723164E-3</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1.43169445E-2</v>
+      <c r="A72" s="2">
+        <v>-7.8076371122668825E-3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1.41843158E-2</v>
+      <c r="A73" s="2">
+        <v>-1.191526344930568E-2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1.39142208E-2</v>
+      <c r="A74" s="2">
+        <v>-8.6433159534007008E-3</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1.40152239E-2</v>
+      <c r="A75" s="2">
+        <v>-1.5511980100309967E-2</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1.38215057E-2</v>
+      <c r="A76" s="2">
+        <v>1.0322395273726083E-2</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1.34004494E-2</v>
+      <c r="A77" s="2">
+        <v>3.3044397384872693E-5</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1.34745501E-2</v>
+      <c r="A78" s="2">
+        <v>1.4586397317203481E-2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1.3225040400000001E-2</v>
+      <c r="A79" s="2">
+        <v>-8.3984149216355421E-3</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1.29418129E-2</v>
+      <c r="A80" s="2">
+        <v>-7.1681334372347728E-3</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1.29257E-2</v>
+      <c r="A81" s="2">
+        <v>-1.2670590590835105E-2</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1.29125499E-2</v>
+      <c r="A82" s="2">
+        <v>-1.2704754216899049E-2</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1.31420931E-2</v>
+      <c r="A83" s="2">
+        <v>1.6322123528703616E-2</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1.28453788E-2</v>
+      <c r="A84" s="2">
+        <v>6.6483368979975968E-3</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1.24560126E-2</v>
+      <c r="A85" s="2">
+        <v>-9.0108995942893083E-4</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1.3189937800000001E-2</v>
+      <c r="A86" s="2">
+        <v>2.1653076650449778E-2</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1.30460297E-2</v>
+      <c r="A87" s="2">
+        <v>-1.0537946862235978E-2</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1.2957326E-2</v>
+      <c r="A88" s="2">
+        <v>-1.147848633572479E-2</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1.25693883E-2</v>
+      <c r="A89" s="2">
+        <v>1.6870357036859634E-3</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1.3207375699999999E-2</v>
+      <c r="A90" s="2">
+        <v>-2.0786462512787287E-2</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1.36651603E-2</v>
+      <c r="A91" s="2">
+        <v>1.947986999980349E-2</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1.35811601E-2</v>
+      <c r="A92" s="2">
+        <v>-1.218981670278076E-2</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1.35288817E-2</v>
+      <c r="A93" s="2">
+        <v>1.2681749002639244E-2</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1.31212325E-2</v>
+      <c r="A94" s="2">
+        <v>-1.4020321768302953E-3</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1.2817125400000001E-2</v>
+      <c r="A95" s="2">
+        <v>6.3796108637650881E-3</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1.2647103E-2</v>
+      <c r="A96" s="2">
+        <v>-9.5979440015716566E-3</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1.2595142700000001E-2</v>
+      <c r="A97" s="2">
+        <v>-1.175114129593165E-2</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1.25547409E-2</v>
+      <c r="A98" s="2">
+        <v>-1.1903890760690719E-2</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1.2339851799999999E-2</v>
+      <c r="A99" s="2">
+        <v>8.2741702345159006E-3</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1.19953283E-2</v>
+      <c r="A100" s="2">
+        <v>-3.5408902813211561E-3</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>1.16987806E-2</v>
+      <c r="A101" s="2">
+        <v>5.1750078156086298E-3</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1.14375259E-2</v>
+      <c r="A102" s="2">
+        <v>-6.0100168128911398E-3</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1.16478654E-2</v>
+      <c r="A103" s="2">
+        <v>-1.4551512129763145E-2</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1.1293121600000001E-2</v>
+      <c r="A104" s="2">
+        <v>-1.9113923845283333E-4</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1.09645595E-2</v>
+      <c r="A105" s="2">
+        <v>2.3771333642705812E-3</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1.1000578800000001E-2</v>
+      <c r="A106" s="2">
+        <v>-1.1550225312650051E-2</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1.0665567799999999E-2</v>
+      <c r="A107" s="2">
+        <v>1.9859992974775368E-4</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1.03623699E-2</v>
+      <c r="A108" s="2">
+        <v>-2.7375015830001653E-3</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1.01123755E-2</v>
+      <c r="A109" s="2">
+        <v>4.6977827226468982E-3</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>9.8358657999999995E-3</v>
+      <c r="A110" s="2">
+        <v>-3.2138403605185542E-3</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>9.6568061E-3</v>
+      <c r="A111" s="2">
+        <v>6.2106151417725712E-3</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>9.7525553000000001E-3</v>
+      <c r="A112" s="2">
+        <v>-1.1145750622730804E-2</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1.0219900699999999E-2</v>
+      <c r="A113" s="2">
+        <v>-1.5832863839866207E-2</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>1.06458874E-2</v>
+      <c r="A114" s="2">
+        <v>1.5893043772249243E-2</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1.07772806E-2</v>
+      <c r="A115" s="2">
+        <v>-1.2658957787535577E-2</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1.1204074499999999E-2</v>
+      <c r="A116" s="2">
+        <v>-1.6507824628282427E-2</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1.0866753999999999E-2</v>
+      <c r="A117" s="2">
+        <v>1.2037053572538563E-3</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1.0916475E-2</v>
+      <c r="A118" s="2">
+        <v>-1.1667808014607022E-2</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1.06475874E-2</v>
+      <c r="A119" s="2">
+        <v>4.7466750889909731E-3</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1.0456225499999999E-2</v>
+      <c r="A120" s="2">
+        <v>6.7870000303357474E-3</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1.02658143E-2</v>
+      <c r="A121" s="2">
+        <v>-6.6008213889043694E-3</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>9.9623821999999997E-3</v>
+      <c r="A122" s="2">
+        <v>1.7575196585691813E-3</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1.00837432E-2</v>
+      <c r="A123" s="2">
+        <v>-1.1823535850834359E-2</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1.0409070899999999E-2</v>
+      <c r="A124" s="2">
+        <v>-1.458754834929998E-2</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1.13537282E-2</v>
+      <c r="A125" s="2">
+        <v>-2.1236490192015952E-2</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1.10093337E-2</v>
+      <c r="A126" s="2">
+        <v>-7.3841288749928601E-4</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1.06858591E-2</v>
+      <c r="A127" s="2">
+        <v>2.0594523523494242E-3</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1.0824422199999999E-2</v>
+      <c r="A128" s="2">
+        <v>-1.2800902342910973E-2</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1.09754385E-2</v>
+      <c r="A129" s="2">
+        <v>-1.3116288127159811E-2</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1.12203076E-2</v>
+      <c r="A130" s="2">
+        <v>1.4527369232318761E-2</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1.12231664E-2</v>
+      <c r="A131" s="2">
+        <v>-1.126786068359152E-2</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1.0935148299999999E-2</v>
+      <c r="A132" s="2">
+        <v>4.4263824820157237E-3</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1.0776536099999999E-2</v>
+      <c r="A133" s="2">
+        <v>7.8855452477230234E-3</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1.10209377E-2</v>
+      <c r="A134" s="2">
+        <v>-1.4315121125233601E-2</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1.30733241E-2</v>
+      <c r="A135" s="2">
+        <v>3.0751260158927471E-2</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1.26776505E-2</v>
+      <c r="A136" s="2">
+        <v>1.0466317111795295E-3</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1.23546019E-2</v>
+      <c r="A137" s="2">
+        <v>-5.0936827166123497E-3</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1.2089103800000001E-2</v>
+      <c r="A138" s="2">
+        <v>6.6688505257258262E-3</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>1.27489261E-2</v>
+      <c r="A139" s="2">
+        <v>-2.0476600531008526E-2</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>1.6530550099999999E-2</v>
+      <c r="A140" s="2">
+        <v>4.4809983431233352E-2</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1.6284081700000001E-2</v>
+      <c r="A141" s="2">
+        <v>-1.176702860620372E-2</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1.60740212E-2</v>
+      <c r="A142" s="2">
+        <v>1.2324176635336402E-2</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1.5946383200000001E-2</v>
+      <c r="A143" s="2">
+        <v>-1.379337272579481E-2</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1.5578028000000001E-2</v>
+      <c r="A144" s="2">
+        <v>-7.7942777853976259E-3</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1.5760692900000001E-2</v>
+      <c r="A145" s="2">
+        <v>1.8387035415050726E-2</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1.5289147100000001E-2</v>
+      <c r="A146" s="2">
+        <v>-2.0918184755285354E-3</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1.6284007999999999E-2</v>
+      <c r="A147" s="2">
+        <v>2.7518593358539289E-2</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1.6232669599999999E-2</v>
+      <c r="A148" s="2">
+        <v>-1.5406049328645539E-2</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1.72218318E-2</v>
+      <c r="A149" s="2">
+        <v>2.8548760524506264E-2</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1.6706232000000001E-2</v>
+      <c r="A150" s="2">
+        <v>2.2441950435858915E-3</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1.81721756E-2</v>
+      <c r="A151" s="2">
+        <v>3.3634226400852126E-2</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1.8248285600000001E-2</v>
+      <c r="A152" s="2">
+        <v>-1.9401735101505928E-2</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1.8047410900000001E-2</v>
+      <c r="A153" s="2">
+        <v>1.4542528502853955E-2</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1.8056746200000001E-2</v>
+      <c r="A154" s="2">
+        <v>-1.8202373659084833E-2</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1.80945881E-2</v>
+      <c r="A155" s="2">
+        <v>-1.8677437513250732E-2</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1.7689634900000001E-2</v>
+      <c r="A156" s="2">
+        <v>9.2681475881761545E-3</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1.7232093800000001E-2</v>
+      <c r="A157" s="2">
+        <v>6.8279610002119264E-3</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1.68189846E-2</v>
+      <c r="A158" s="2">
+        <v>7.9055768806753739E-3</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>1.6456307900000001E-2</v>
+      <c r="A159" s="2">
+        <v>-9.0411293969155197E-3</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1.6864202200000001E-2</v>
+      <c r="A160" s="2">
+        <v>2.230091551137818E-2</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>1.64167853E-2</v>
+      <c r="A161" s="2">
+        <v>6.0188636002895301E-3</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1.7101534599999999E-2</v>
+      <c r="A162" s="2">
+        <v>-2.5535039883236219E-2</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>1.68613879E-2</v>
+      <c r="A163" s="2">
+        <v>1.2511106307620095E-2</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>1.66045441E-2</v>
+      <c r="A164" s="2">
+        <v>-1.1876353792036071E-2</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1.6733146899999999E-2</v>
+      <c r="A165" s="2">
+        <v>-1.8632397106843664E-2</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1.6677848299999999E-2</v>
+      <c r="A166" s="2">
+        <v>1.5786233367398518E-2</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1.6674918300000001E-2</v>
+      <c r="A167" s="2">
+        <v>1.6628948324458406E-2</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1.62389899E-2</v>
+      <c r="A168" s="2">
+        <v>-6.2384115839295342E-3</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1.6167172699999999E-2</v>
+      <c r="A169" s="2">
+        <v>1.4997203348821871E-2</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1.5682964899999999E-2</v>
+      <c r="A170" s="2">
+        <v>-2.0839198004098856E-3</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1.6699478600000001E-2</v>
+      <c r="A171" s="2">
+        <v>-2.8188213242120112E-2</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1.6197743699999999E-2</v>
+      <c r="A172" s="2">
+        <v>1.9436717428270283E-3</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1.6436492300000001E-2</v>
+      <c r="A173" s="2">
+        <v>-1.9804624813106013E-2</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1.5948331499999999E-2</v>
+      <c r="A174" s="2">
+        <v>2.5835919581322945E-3</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1.5713451400000002E-2</v>
+      <c r="A175" s="2">
+        <v>1.1419451970312848E-2</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1.63306296E-2</v>
+      <c r="A176" s="2">
+        <v>2.4010991534254171E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1.5928318100000002E-2</v>
+      <c r="A177" s="2">
+        <v>7.0983800583222347E-3</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1.55037582E-2</v>
+      <c r="A178" s="2">
+        <v>5.5944645497104997E-3</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1.54989324E-2</v>
+      <c r="A179" s="2">
+        <v>-1.5423130468369258E-2</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1.52025218E-2</v>
+      <c r="A180" s="2">
+        <v>9.4099054979018999E-3</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1.47824681E-2</v>
+      <c r="A181" s="2">
+        <v>4.6037918773846236E-3</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1.4460996199999999E-2</v>
+      <c r="A182" s="2">
+        <v>-7.8637672751515446E-3</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1.441308E-2</v>
+      <c r="A183" s="2">
+        <v>-1.3640435098960227E-2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1.4030644300000001E-2</v>
+      <c r="A184" s="2">
+        <v>5.1418494000327235E-3</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1.37773941E-2</v>
+      <c r="A185" s="2">
+        <v>8.915480682523692E-3</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1.33855061E-2</v>
+      <c r="A186" s="2">
+        <v>-3.5217890558782196E-3</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1.31109348E-2</v>
+      <c r="A187" s="2">
+        <v>7.6104589347231874E-3</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1.27130105E-2</v>
+      <c r="A188" s="2">
+        <v>-7.9392739462354927E-4</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1.2560323599999999E-2</v>
+      <c r="A189" s="2">
+        <v>-9.8643574811340985E-3</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1.2844533599999999E-2</v>
+      <c r="A190" s="2">
+        <v>1.6676339790766458E-2</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1.24924539E-2</v>
+      <c r="A191" s="2">
+        <v>-4.0379082078768379E-3</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1.2169089399999999E-2</v>
+      <c r="A192" s="2">
+        <v>-4.8114737914607833E-3</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1.26548075E-2</v>
+      <c r="A193" s="2">
+        <v>-1.8682710293908538E-2</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1.2841128E-2</v>
+      <c r="A194" s="2">
+        <v>-1.5469899058823464E-2</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>1.5046039900000001E-2</v>
+      <c r="A195" s="2">
+        <v>3.4492130006828096E-2</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>1.4715160499999999E-2</v>
+      <c r="A196" s="2">
+        <v>7.8905336812570316E-3</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1.42676131E-2</v>
+      <c r="A197" s="2">
+        <v>-5.9149133366743329E-4</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1.3924662399999999E-2</v>
+      <c r="A198" s="2">
+        <v>-6.5132232650647742E-3</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1.3513132000000001E-2</v>
+      <c r="A199" s="2">
+        <v>2.388473485305259E-3</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>1.54532436E-2</v>
+      <c r="A200" s="2">
+        <v>-3.3455015519497297E-2</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>1.52131656E-2</v>
+      <c r="A201" s="2">
+        <v>-1.0774844683278436E-2</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>1.47871732E-2</v>
+      <c r="A202" s="2">
+        <v>4.2943866191920942E-3</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>1.4911162299999999E-2</v>
+      <c r="A203" s="2">
+        <v>-1.6734147079477093E-2</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>1.44578203E-2</v>
+      <c r="A204" s="2">
+        <v>-6.6298821463600503E-4</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>1.42521401E-2</v>
+      <c r="A205" s="2">
+        <v>-1.051716295442843E-2</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>1.38197335E-2</v>
+      <c r="A206" s="2">
+        <v>9.0319285840587289E-4</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>1.3475324300000001E-2</v>
+      <c r="A207" s="2">
+        <v>-5.8572388922180744E-3</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1.3097839199999999E-2</v>
+      <c r="A208" s="2">
+        <v>-3.7949279485712485E-3</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1.29529146E-2</v>
+      <c r="A209" s="2">
+        <v>1.0422576654409882E-2</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>1.27863896E-2</v>
+      <c r="A210" s="2">
+        <v>-9.8153299901495711E-3</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>1.2458085299999999E-2</v>
+      <c r="A211" s="2">
+        <v>-5.0359308140269796E-3</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1.2164254899999999E-2</v>
+      <c r="A212" s="2">
+        <v>-5.8842194303817472E-3</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>1.1939969200000001E-2</v>
+      <c r="A213" s="2">
+        <v>-7.6069193312473752E-3</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>1.15821176E-2</v>
+      <c r="A214" s="2">
+        <v>-1.5075042714116646E-3</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>1.2650364900000001E-2</v>
+      <c r="A215" s="2">
+        <v>2.3782000496105408E-2</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>1.2741461399999999E-2</v>
+      <c r="A216" s="2">
+        <v>-1.4091965724563336E-2</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>1.2534026E-2</v>
+      <c r="A217" s="2">
+        <v>8.6580001255730926E-3</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>1.22729495E-2</v>
+      <c r="A218" s="2">
+        <v>-7.0114081182728735E-3</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>1.1940936399999999E-2</v>
+      <c r="A219" s="2">
+        <v>4.0787882419025569E-3</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>1.195354E-2</v>
+      <c r="A220" s="2">
+        <v>-1.2149288784655442E-2</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>1.16481919E-2</v>
+      <c r="A221" s="2">
+        <v>4.7722862592451286E-3</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>1.1352235400000001E-2</v>
+      <c r="A222" s="2">
+        <v>4.7146868659662198E-3</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>1.11439717E-2</v>
+      <c r="A223" s="2">
+        <v>7.1265385367379882E-3</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>1.14575775E-2</v>
+      <c r="A224" s="2">
+        <v>1.556666463228929E-2</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>1.1493749899999999E-2</v>
+      <c r="A225" s="2">
+        <v>-1.2046279059761881E-2</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>1.13874237E-2</v>
+      <c r="A226" s="2">
+        <v>9.5686193597472689E-3</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>1.1196816300000001E-2</v>
+      <c r="A227" s="2">
+        <v>-7.6110461210736387E-3</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>1.08577277E-2</v>
+      <c r="A228" s="2">
+        <v>-8.5319359037406748E-4</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>1.09901918E-2</v>
+      <c r="A229" s="2">
+        <v>1.2888936524281391E-2</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>1.07770798E-2</v>
+      <c r="A230" s="2">
+        <v>-6.5931684709575489E-3</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>1.0773174700000001E-2</v>
+      <c r="A231" s="2">
+        <v>1.0711809375191157E-2</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>1.04456377E-2</v>
+      <c r="A232" s="2">
+        <v>4.783710905165456E-4</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>1.12885403E-2</v>
+      <c r="A233" s="2">
+        <v>-2.0357830936179513E-2</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>1.1101160800000001E-2</v>
+      <c r="A234" s="2">
+        <v>7.5834207294451957E-3</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1.14776584E-2</v>
+      <c r="A235" s="2">
+        <v>-1.6276270106634527E-2</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1.1321998999999999E-2</v>
+      <c r="A236" s="2">
+        <v>-8.5197991478681741E-3</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1.09773358E-2</v>
+      <c r="A237" s="2">
+        <v>-3.0275171858206644E-4</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1.07353464E-2</v>
+      <c r="A238" s="2">
+        <v>5.7385742171527868E-3</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1.05912842E-2</v>
+      <c r="A239" s="2">
+        <v>-8.0026034093412766E-3</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>1.04092257E-2</v>
+      <c r="A240" s="2">
+        <v>6.960837879699127E-3</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>1.01404298E-2</v>
+      <c r="A241" s="2">
+        <v>-4.0362015610479344E-3</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>1.06571683E-2</v>
+      <c r="A242" s="2">
+        <v>-1.6791177209755884E-2</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>1.0335653E-2</v>
+      <c r="A243" s="2">
+        <v>-1.0408489955971234E-3</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>1.05651961E-2</v>
+      <c r="A244" s="2">
+        <v>-1.3666984724945158E-2</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>1.0625226099999999E-2</v>
+      <c r="A245" s="2">
+        <v>1.1524946474588283E-2</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>1.03672764E-2</v>
+      <c r="A246" s="2">
+        <v>-4.7587055907184119E-3</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>1.00514629E-2</v>
+      <c r="A247" s="2">
+        <v>-7.2065653832526134E-5</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>1.08297554E-2</v>
+      <c r="A248" s="2">
+        <v>1.9284540650438897E-2</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>1.0517103999999999E-2</v>
+      <c r="A249" s="2">
+        <v>-2.4592997902346744E-3</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>1.02857543E-2</v>
+      <c r="A250" s="2">
+        <v>-5.513370003202611E-3</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>9.9825266999999992E-3</v>
+      <c r="A251" s="2">
+        <v>-1.8343996128380767E-3</v>
       </c>
     </row>
   </sheetData>
